--- a/tietokanta/class_advancement/excel/Class_advancement.xlsx
+++ b/tietokanta/class_advancement/excel/Class_advancement.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\class_advancement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\class_advancement\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{679032B2-9AC8-4CAB-9B09-CF9CA306D83F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36C1956-6271-4BD9-A58B-65A12CD23400}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4755" yWindow="1140" windowWidth="19665" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -37,11 +37,14 @@
   <connection id="1" xr16:uid="{6E404243-8417-4DCE-8550-D4E8BE0FB66D}" name="advancement_schema" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\class_advancement\advancement_schema.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
+  <connection id="2" xr16:uid="{195F1D2A-0D29-4677-8CAC-9CEACC8C7524}" name="advancement_schema1" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\schemas\advancement_schema.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="247">
   <si>
     <t>Name</t>
   </si>
@@ -845,18 +848,18 @@
 
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema1">
+  <Schema ID="Schema2">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="Advancements">
         <xsd:complexType>
           <xsd:sequence minOccurs="0">
-            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Advancement" form="unqualified">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="advancement" form="unqualified">
               <xsd:complexType>
                 <xsd:sequence minOccurs="0">
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Name" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Class" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Effect" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Description" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="advName" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="class" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="effect" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="description" form="unqualified"/>
                 </xsd:sequence>
               </xsd:complexType>
             </xsd:element>
@@ -865,27 +868,27 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="1" Name="Advancements-määritys" RootElement="Advancements" SchemaID="Schema1" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="1" DataBindingLoadMode="1"/>
+  <Map ID="2" Name="Advancements-määritys" RootElement="Advancements" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="2" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A4C79256-BF3C-4ABC-A0F9-846052770A59}" name="Taulukko1" displayName="Taulukko1" ref="A1:D152" tableType="xml" totalsRowShown="0" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A4C79256-BF3C-4ABC-A0F9-846052770A59}" name="Taulukko1" displayName="Taulukko1" ref="A1:D152" tableType="xml" totalsRowShown="0" connectionId="2">
   <autoFilter ref="A1:D152" xr:uid="{6FA90285-6CC0-4B60-B6D8-164A1EE124E4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{69D68538-76D2-4888-ADE2-B4C2C981F044}" uniqueName="Name" name="Name">
-      <xmlColumnPr mapId="1" xpath="/Advancements/Advancement/Name" xmlDataType="string"/>
+    <tableColumn id="1" xr3:uid="{69D68538-76D2-4888-ADE2-B4C2C981F044}" uniqueName="advName" name="Name">
+      <xmlColumnPr mapId="2" xpath="/Advancements/advancement/advName" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{1063B757-0C09-43C6-81E9-38C6270FEBF1}" uniqueName="Class" name="Class">
-      <xmlColumnPr mapId="1" xpath="/Advancements/Advancement/Class" xmlDataType="string"/>
+    <tableColumn id="2" xr3:uid="{1063B757-0C09-43C6-81E9-38C6270FEBF1}" uniqueName="class" name="Class">
+      <xmlColumnPr mapId="2" xpath="/Advancements/advancement/class" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{133B4498-2D46-4781-B4B0-222944225F05}" uniqueName="Effect" name="Effect">
-      <xmlColumnPr mapId="1" xpath="/Advancements/Advancement/Effect" xmlDataType="string"/>
+    <tableColumn id="3" xr3:uid="{133B4498-2D46-4781-B4B0-222944225F05}" uniqueName="effect" name="Effect">
+      <xmlColumnPr mapId="2" xpath="/Advancements/advancement/effect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{271F34FD-3AE7-4A4D-B874-7E460A890C90}" uniqueName="Description" name="Description">
-      <xmlColumnPr mapId="1" xpath="/Advancements/Advancement/Description" xmlDataType="string"/>
+    <tableColumn id="4" xr3:uid="{271F34FD-3AE7-4A4D-B874-7E460A890C90}" uniqueName="description" name="Description">
+      <xmlColumnPr mapId="2" xpath="/Advancements/advancement/description" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1158,7 +1161,7 @@
   <dimension ref="A1:D152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1290,7 +1293,9 @@
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>246</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>246</v>
       </c>
@@ -1302,7 +1307,9 @@
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>246</v>
+      </c>
       <c r="D10" s="1" t="s">
         <v>246</v>
       </c>
@@ -1314,7 +1321,9 @@
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>246</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>246</v>
       </c>
@@ -1326,7 +1335,9 @@
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>246</v>
+      </c>
       <c r="D12" s="1" t="s">
         <v>246</v>
       </c>
@@ -1366,7 +1377,9 @@
       <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>246</v>
+      </c>
       <c r="D15" s="1" t="s">
         <v>246</v>
       </c>
@@ -1406,7 +1419,9 @@
       <c r="B18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>246</v>
+      </c>
       <c r="D18" s="1" t="s">
         <v>246</v>
       </c>
@@ -1432,7 +1447,9 @@
       <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>246</v>
+      </c>
       <c r="D20" s="1" t="s">
         <v>246</v>
       </c>
@@ -1444,7 +1461,9 @@
       <c r="B21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>246</v>
+      </c>
       <c r="D21" s="1" t="s">
         <v>246</v>
       </c>
@@ -1470,7 +1489,9 @@
       <c r="B23" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>246</v>
+      </c>
       <c r="D23" s="1" t="s">
         <v>246</v>
       </c>
@@ -1482,7 +1503,9 @@
       <c r="B24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>246</v>
+      </c>
       <c r="D24" s="1" t="s">
         <v>246</v>
       </c>
@@ -1522,7 +1545,9 @@
       <c r="B27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>246</v>
+      </c>
       <c r="D27" s="1" t="s">
         <v>246</v>
       </c>
@@ -1537,7 +1562,9 @@
       <c r="C28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -1546,8 +1573,12 @@
       <c r="B29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -1556,8 +1587,12 @@
       <c r="B30" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -1569,7 +1604,9 @@
       <c r="C31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -1581,7 +1618,9 @@
       <c r="C32" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -1590,8 +1629,12 @@
       <c r="B33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -1603,7 +1646,9 @@
       <c r="C34" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -1615,7 +1660,9 @@
       <c r="C35" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -1627,7 +1674,9 @@
       <c r="C36" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -1639,7 +1688,9 @@
       <c r="C37" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -1649,7 +1700,9 @@
         <v>206</v>
       </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
@@ -1661,7 +1714,9 @@
       <c r="C39" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -1673,7 +1728,9 @@
       <c r="C40" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
@@ -1682,8 +1739,12 @@
       <c r="B41" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -1695,7 +1756,9 @@
       <c r="C42" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -1707,7 +1770,9 @@
       <c r="C43" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
@@ -1716,8 +1781,12 @@
       <c r="B44" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
@@ -1729,7 +1798,9 @@
       <c r="C45" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
@@ -1738,8 +1809,12 @@
       <c r="B46" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+      <c r="C46" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
@@ -1751,7 +1826,9 @@
       <c r="C47" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
@@ -1763,7 +1840,9 @@
       <c r="C48" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D48" s="1"/>
+      <c r="D48" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
@@ -1775,7 +1854,9 @@
       <c r="C49" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
@@ -1787,7 +1868,9 @@
       <c r="C50" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D50" s="1"/>
+      <c r="D50" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
@@ -1799,7 +1882,9 @@
       <c r="C51" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D51" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -1811,7 +1896,9 @@
       <c r="C52" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D52" s="1"/>
+      <c r="D52" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
@@ -1823,7 +1910,9 @@
       <c r="C53" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D53" s="1"/>
+      <c r="D53" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
@@ -1832,8 +1921,12 @@
       <c r="B54" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+      <c r="C54" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
@@ -1845,7 +1938,9 @@
       <c r="C55" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D55" s="1"/>
+      <c r="D55" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
@@ -1854,8 +1949,12 @@
       <c r="B56" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
+      <c r="C56" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
@@ -1864,8 +1963,12 @@
       <c r="B57" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+      <c r="C57" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
@@ -1874,8 +1977,12 @@
       <c r="B58" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+      <c r="C58" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
@@ -1884,8 +1991,12 @@
       <c r="B59" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
+      <c r="C59" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
@@ -1897,7 +2008,9 @@
       <c r="C60" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D60" s="1"/>
+      <c r="D60" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
@@ -1906,8 +2019,12 @@
       <c r="B61" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
+      <c r="C61" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -1919,7 +2036,9 @@
       <c r="C62" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D62" s="1"/>
+      <c r="D62" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -1931,7 +2050,9 @@
       <c r="C63" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D63" s="1"/>
+      <c r="D63" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
@@ -1943,7 +2064,9 @@
       <c r="C64" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D64" s="1"/>
+      <c r="D64" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
@@ -1952,8 +2075,12 @@
       <c r="B65" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
+      <c r="C65" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
@@ -1965,7 +2092,9 @@
       <c r="C66" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D66" s="1"/>
+      <c r="D66" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
@@ -1974,8 +2103,12 @@
       <c r="B67" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
+      <c r="C67" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
@@ -1987,7 +2120,9 @@
       <c r="C68" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D68" s="1"/>
+      <c r="D68" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
@@ -1999,7 +2134,9 @@
       <c r="C69" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D69" s="1"/>
+      <c r="D69" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
@@ -2011,7 +2148,9 @@
       <c r="C70" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D70" s="1"/>
+      <c r="D70" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
@@ -2020,8 +2159,12 @@
       <c r="B71" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
+      <c r="C71" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
@@ -2033,7 +2176,9 @@
       <c r="C72" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D72" s="1"/>
+      <c r="D72" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
@@ -2042,8 +2187,12 @@
       <c r="B73" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
+      <c r="C73" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
@@ -2055,7 +2204,9 @@
       <c r="C74" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D74" s="1"/>
+      <c r="D74" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
@@ -2064,8 +2215,12 @@
       <c r="B75" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
+      <c r="C75" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
@@ -2074,8 +2229,12 @@
       <c r="B76" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
+      <c r="C76" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
@@ -2084,8 +2243,12 @@
       <c r="B77" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
+      <c r="C77" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
@@ -2094,8 +2257,12 @@
       <c r="B78" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
+      <c r="C78" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
@@ -2104,8 +2271,12 @@
       <c r="B79" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
+      <c r="C79" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
@@ -2114,8 +2285,12 @@
       <c r="B80" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
+      <c r="C80" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
@@ -2124,8 +2299,12 @@
       <c r="B81" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
+      <c r="C81" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
@@ -2134,8 +2313,12 @@
       <c r="B82" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
+      <c r="C82" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
@@ -2144,8 +2327,12 @@
       <c r="B83" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
+      <c r="C83" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
@@ -2154,8 +2341,12 @@
       <c r="B84" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
+      <c r="C84" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
@@ -2164,8 +2355,12 @@
       <c r="B85" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
+      <c r="C85" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
@@ -2177,7 +2372,9 @@
       <c r="C86" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D86" s="1"/>
+      <c r="D86" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
@@ -2186,8 +2383,12 @@
       <c r="B87" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
+      <c r="C87" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
@@ -2196,8 +2397,12 @@
       <c r="B88" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
+      <c r="C88" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
@@ -2209,7 +2414,9 @@
       <c r="C89" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D89" s="1"/>
+      <c r="D89" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
@@ -2218,7 +2425,9 @@
       <c r="B90" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C90" s="1"/>
+      <c r="C90" s="1" t="s">
+        <v>246</v>
+      </c>
       <c r="D90" s="1" t="s">
         <v>147</v>
       </c>
@@ -2233,7 +2442,9 @@
       <c r="C91" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D91" s="1"/>
+      <c r="D91" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
@@ -2242,8 +2453,12 @@
       <c r="B92" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
+      <c r="C92" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
@@ -2255,7 +2470,9 @@
       <c r="C93" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D93" s="1"/>
+      <c r="D93" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
@@ -2278,8 +2495,12 @@
       <c r="B95" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
+      <c r="C95" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
@@ -2291,7 +2512,9 @@
       <c r="C96" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D96" s="1"/>
+      <c r="D96" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
@@ -2300,8 +2523,12 @@
       <c r="B97" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
+      <c r="C97" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
@@ -2310,8 +2537,12 @@
       <c r="B98" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
+      <c r="C98" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
@@ -2323,7 +2554,9 @@
       <c r="C99" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D99" s="1"/>
+      <c r="D99" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
@@ -2335,7 +2568,9 @@
       <c r="C100" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D100" s="1"/>
+      <c r="D100" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
@@ -2344,8 +2579,12 @@
       <c r="B101" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
+      <c r="C101" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
@@ -2357,7 +2596,9 @@
       <c r="C102" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D102" s="1"/>
+      <c r="D102" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
@@ -2366,8 +2607,12 @@
       <c r="B103" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
+      <c r="C103" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
@@ -2376,8 +2621,12 @@
       <c r="B104" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
+      <c r="C104" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
@@ -2389,7 +2638,9 @@
       <c r="C105" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D105" s="1"/>
+      <c r="D105" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
@@ -2398,8 +2649,12 @@
       <c r="B106" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
+      <c r="C106" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
@@ -2411,7 +2666,9 @@
       <c r="C107" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D107" s="1"/>
+      <c r="D107" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
@@ -2423,7 +2680,9 @@
       <c r="C108" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D108" s="1"/>
+      <c r="D108" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
@@ -2432,8 +2691,12 @@
       <c r="B109" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
+      <c r="C109" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
@@ -2445,7 +2708,9 @@
       <c r="C110" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D110" s="1"/>
+      <c r="D110" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
@@ -2454,8 +2719,12 @@
       <c r="B111" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
+      <c r="C111" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
@@ -2464,8 +2733,12 @@
       <c r="B112" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
+      <c r="C112" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
@@ -2474,8 +2747,12 @@
       <c r="B113" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
+      <c r="C113" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
@@ -2487,7 +2764,9 @@
       <c r="C114" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D114" s="1"/>
+      <c r="D114" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
@@ -2496,8 +2775,12 @@
       <c r="B115" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
+      <c r="C115" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
@@ -2506,8 +2789,12 @@
       <c r="B116" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
+      <c r="C116" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
@@ -2516,8 +2803,12 @@
       <c r="B117" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
+      <c r="C117" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
@@ -2526,8 +2817,12 @@
       <c r="B118" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
+      <c r="C118" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
@@ -2536,8 +2831,12 @@
       <c r="B119" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
+      <c r="C119" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
@@ -2549,7 +2848,9 @@
       <c r="C120" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D120" s="1"/>
+      <c r="D120" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
@@ -2558,8 +2859,12 @@
       <c r="B121" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
+      <c r="C121" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
@@ -2568,8 +2873,12 @@
       <c r="B122" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
+      <c r="C122" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
@@ -2578,8 +2887,12 @@
       <c r="B123" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
+      <c r="C123" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
@@ -2588,8 +2901,12 @@
       <c r="B124" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
+      <c r="C124" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
@@ -2601,7 +2918,9 @@
       <c r="C125" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D125" s="1"/>
+      <c r="D125" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
@@ -2610,8 +2929,12 @@
       <c r="B126" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
+      <c r="C126" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
@@ -2623,7 +2946,9 @@
       <c r="C127" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D127" s="1"/>
+      <c r="D127" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
@@ -2632,8 +2957,12 @@
       <c r="B128" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
+      <c r="C128" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
@@ -2645,7 +2974,9 @@
       <c r="C129" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D129" s="1"/>
+      <c r="D129" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
@@ -2654,8 +2985,12 @@
       <c r="B130" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
+      <c r="C130" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
@@ -2667,7 +3002,9 @@
       <c r="C131" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D131" s="1"/>
+      <c r="D131" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
@@ -2676,8 +3013,12 @@
       <c r="B132" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
+      <c r="C132" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
@@ -2689,7 +3030,9 @@
       <c r="C133" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D133" s="1"/>
+      <c r="D133" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
@@ -2698,8 +3041,12 @@
       <c r="B134" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
+      <c r="C134" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
@@ -2711,7 +3058,9 @@
       <c r="C135" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D135" s="1"/>
+      <c r="D135" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
@@ -2723,7 +3072,9 @@
       <c r="C136" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D136" s="1"/>
+      <c r="D136" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
@@ -2732,8 +3083,12 @@
       <c r="B137" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
+      <c r="C137" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
@@ -2742,8 +3097,12 @@
       <c r="B138" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
+      <c r="C138" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
@@ -2752,8 +3111,12 @@
       <c r="B139" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
+      <c r="C139" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
@@ -2765,7 +3128,9 @@
       <c r="C140" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D140" s="1"/>
+      <c r="D140" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
@@ -2774,8 +3139,12 @@
       <c r="B141" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
+      <c r="C141" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
@@ -2787,7 +3156,9 @@
       <c r="C142" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D142" s="1"/>
+      <c r="D142" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
@@ -2796,8 +3167,12 @@
       <c r="B143" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
+      <c r="C143" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
@@ -2806,8 +3181,12 @@
       <c r="B144" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
+      <c r="C144" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
@@ -2816,8 +3195,12 @@
       <c r="B145" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
+      <c r="C145" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
@@ -2826,8 +3209,12 @@
       <c r="B146" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
+      <c r="C146" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
@@ -2836,8 +3223,12 @@
       <c r="B147" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
+      <c r="C147" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
@@ -2846,8 +3237,12 @@
       <c r="B148" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
+      <c r="C148" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
@@ -2856,8 +3251,12 @@
       <c r="B149" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
+      <c r="C149" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
@@ -2866,8 +3265,12 @@
       <c r="B150" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
+      <c r="C150" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
@@ -2876,8 +3279,12 @@
       <c r="B151" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
+      <c r="C151" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
@@ -2886,8 +3293,12 @@
       <c r="B152" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
+      <c r="C152" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
